--- a/data/Subset2_WithDialogActs/TalkBack.Year2.Gibson.Spring.020821.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year2.Gibson.Spring.020821.xlsx_with_dialog_acts.xlsx
@@ -1115,12 +1115,12 @@
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -1235,12 +1235,12 @@
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1475,12 +1475,12 @@
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -1515,12 +1515,12 @@
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -2155,12 +2155,12 @@
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3075,12 +3075,12 @@
       <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3315,12 +3315,12 @@
       <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -3675,12 +3675,12 @@
       <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -4555,12 +4555,12 @@
       <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5159,12 +5159,12 @@
       <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5599,12 +5599,12 @@
       <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5719,12 +5719,12 @@
       <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5799,12 +5799,12 @@
       <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5839,12 +5839,12 @@
       <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5999,12 +5999,12 @@
       <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -6319,12 +6319,12 @@
       <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6559,12 +6559,12 @@
       <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -7119,12 +7119,12 @@
       <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -7563,12 +7563,12 @@
       <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7643,12 +7643,12 @@
       <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -7723,12 +7723,12 @@
       <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -7807,12 +7807,12 @@
       <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8011,12 +8011,12 @@
       <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8051,12 +8051,12 @@
       <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8131,12 +8131,12 @@
       <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8171,12 +8171,12 @@
       <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -8211,12 +8211,12 @@
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8291,12 +8291,12 @@
       <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -9051,12 +9051,12 @@
       <c r="H215" t="inlineStr"/>
       <c r="I215" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9971,12 +9971,12 @@
       <c r="H238" t="inlineStr"/>
       <c r="I238" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10091,12 +10091,12 @@
       <c r="H241" t="inlineStr"/>
       <c r="I241" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -10451,12 +10451,12 @@
       <c r="H250" t="inlineStr"/>
       <c r="I250" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J250" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10531,12 +10531,12 @@
       <c r="H252" t="inlineStr"/>
       <c r="I252" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J252" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -10571,12 +10571,12 @@
       <c r="H253" t="inlineStr"/>
       <c r="I253" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J253" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10885,12 +10885,12 @@
       </c>
       <c r="I261" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J261" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -10923,12 +10923,12 @@
       </c>
       <c r="I262" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J262" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -10961,12 +10961,12 @@
       </c>
       <c r="I263" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J263" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -11037,12 +11037,12 @@
       </c>
       <c r="I265" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J265" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11189,12 +11189,12 @@
       <c r="H269" t="inlineStr"/>
       <c r="I269" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J269" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -11265,12 +11265,12 @@
       <c r="H271" t="inlineStr"/>
       <c r="I271" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J271" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11341,12 +11341,12 @@
       <c r="H273" t="inlineStr"/>
       <c r="I273" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J273" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12101,12 +12101,12 @@
       <c r="H293" t="inlineStr"/>
       <c r="I293" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J293" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -12899,12 +12899,12 @@
       <c r="H314" t="inlineStr"/>
       <c r="I314" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J314" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -13089,12 +13089,12 @@
       <c r="H319" t="inlineStr"/>
       <c r="I319" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J319" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
